--- a/src/site/sphinx/memo/memo.xlsx
+++ b/src/site/sphinx/memo/memo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="条件式" sheetId="1" r:id="rId1"/>
@@ -18,80 +18,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="74">
   <si>
-    <t>&lt;= 値「95」を設定</t>
-    <rPh sb="3" eb="4">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;= 値「30」を設定</t>
-    <rPh sb="3" eb="4">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;= 値「60」を設定。</t>
-    <rPh sb="3" eb="4">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;=値「95」を設定</t>
-    <rPh sb="2" eb="3">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;=値「60」を設定</t>
-    <rPh sb="2" eb="3">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;=値「30」を設定</t>
-    <rPh sb="2" eb="3">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;=文字列「-」を設定</t>
-    <rPh sb="2" eb="5">
-      <t>モジレツ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>http://www.tipsfound.com/Excel2013/03001.vbhtml</t>
   </si>
   <si>
@@ -732,6 +658,80 @@
     <t>!_
 !#
 !!</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>←値「95」を設定</t>
+    <rPh sb="1" eb="2">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>←値「60」を設定</t>
+    <rPh sb="1" eb="2">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>←値「30」を設定</t>
+    <rPh sb="1" eb="2">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>←文字列「-」を設定</t>
+    <rPh sb="1" eb="4">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>← 値「95」を設定</t>
+    <rPh sb="2" eb="3">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>← 値「30」を設定</t>
+    <rPh sb="2" eb="3">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>← 値「60」を設定。</t>
+    <rPh sb="2" eb="3">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -741,11 +741,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="[Blue][&gt;=85]&quot;Aクラス：&quot;#0;[Red][&lt;=30]&quot;Bクラス：&quot;#0"/>
-    <numFmt numFmtId="177" formatCode="[&gt;80]&quot;合格：&quot;#0;[&gt;50]&quot;追試：&quot;#0;&quot;不合格：&quot;#0;&quot;欠席：&quot;@"/>
     <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="179" formatCode="[Blue][&gt;42087]yyyy/m/d\ h:mm;[Red]yyyy/m/d;@"/>
     <numFmt numFmtId="180" formatCode="_ \ \ \ \ \ \ @"/>
     <numFmt numFmtId="181" formatCode="*a@"/>
+    <numFmt numFmtId="183" formatCode="[&gt;=80]&quot;合格：&quot;#0;[&gt;=0]&quot;追試：&quot;#0;&quot;不合格：&quot;#0;&quot;欠席：&quot;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -807,10 +807,6 @@
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -847,6 +843,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1151,8 +1151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1169,7 +1169,7 @@
         <v>95</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -1177,7 +1177,7 @@
         <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -1185,200 +1185,200 @@
         <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="2">
+      <c r="A6" s="19">
         <v>95</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="2">
+      <c r="A7" s="19">
         <v>60</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="2">
+      <c r="A8" s="19">
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="3" t="s">
-        <v>3</v>
+      <c r="A9" s="20" t="s">
+        <v>73</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="5" t="s">
+      <c r="B19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B26" s="7">
+      <c r="B26" s="5">
         <v>42086.977777777778</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B27" s="7">
+      <c r="B27" s="5">
         <v>42087.977777777778</v>
       </c>
-      <c r="D27" s="13" t="s">
-        <v>65</v>
+      <c r="D27" s="11" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="D28" s="12" t="s">
-        <v>65</v>
+      <c r="D28" s="10" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B29" s="8">
+      <c r="B29" s="6">
         <v>368</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B30" s="6">
+      <c r="B30" s="4">
         <v>368</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="D31" s="12"/>
+      <c r="D31" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1390,150 +1390,150 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="16" style="11" customWidth="1"/>
-    <col min="3" max="3" width="49.625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="29.75" style="11" customWidth="1"/>
-    <col min="5" max="5" width="27.25" style="11" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="9"/>
+    <col min="1" max="1" width="3.625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="16" style="9" customWidth="1"/>
+    <col min="3" max="3" width="49.625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="29.75" style="9" customWidth="1"/>
+    <col min="5" max="5" width="27.25" style="9" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="7">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="17" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="9" t="s">
+      <c r="E14" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="10" t="s">
+    </row>
+    <row r="15" spans="1:5" ht="81" x14ac:dyDescent="0.15">
+      <c r="A15" s="12">
+        <v>1</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="13"/>
+    </row>
+    <row r="16" spans="1:5" ht="81" x14ac:dyDescent="0.15">
+      <c r="A16" s="12">
+        <v>2</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="9">
-        <v>1</v>
-      </c>
-      <c r="B5" s="11" t="s">
+      <c r="E16" s="13"/>
+    </row>
+    <row r="17" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A17" s="12">
+        <v>3</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="13"/>
+    </row>
+    <row r="18" spans="1:5" ht="81" x14ac:dyDescent="0.15">
+      <c r="A18" s="12">
+        <v>4</v>
+      </c>
+      <c r="B18" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="81" x14ac:dyDescent="0.15">
-      <c r="A15" s="14">
-        <v>1</v>
-      </c>
-      <c r="B15" s="15" t="s">
+      <c r="C18" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="D18" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" s="15"/>
-    </row>
-    <row r="16" spans="1:5" ht="81" x14ac:dyDescent="0.15">
-      <c r="A16" s="14">
-        <v>2</v>
-      </c>
-      <c r="B16" s="15" t="s">
+      <c r="E18" s="13"/>
+    </row>
+    <row r="19" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="12">
+        <v>5</v>
+      </c>
+      <c r="B19" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" s="17" t="s">
+      <c r="C19" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="E16" s="15"/>
-    </row>
-    <row r="17" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="14">
-        <v>3</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E17" s="15"/>
-    </row>
-    <row r="18" spans="1:5" ht="81" x14ac:dyDescent="0.15">
-      <c r="A18" s="14">
-        <v>4</v>
-      </c>
-      <c r="B18" s="15" t="s">
+      <c r="D19" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="E19" s="15" t="s">
         <v>61</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="15"/>
-    </row>
-    <row r="19" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="14">
-        <v>5</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
